--- a/cost_analysis/cost_worksheet.xlsx
+++ b/cost_analysis/cost_worksheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqp\Documents\Github\pols551_kenya\cost_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\email\Documents\GitHub\pols551_kenya\cost_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="1" xr2:uid="{BACBB8B8-5C97-41F5-A70A-8FFF76E14303}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pawlowski, Alex E.</author>
   </authors>
   <commentList>
-    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{3505DBE4-CE97-4A13-B9B1-546B717B3F82}">
+    <comment ref="J19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -2816,25 +2816,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B750091E-DA89-48E9-A2EB-75CE5B04220E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>4315000</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>3</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>4</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>8630000</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>5</v>
       </c>
@@ -2906,30 +2906,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799784F3-C67F-40AA-A84F-F74B5DF6D161}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="Z1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="5" width="20.86328125" customWidth="1"/>
-    <col min="6" max="6" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="5.796875" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" customWidth="1"/>
-    <col min="12" max="12" width="25.86328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="25.86328125" customWidth="1"/>
-    <col min="15" max="18" width="13.86328125" customWidth="1"/>
+    <col min="3" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="25.85546875" customWidth="1"/>
+    <col min="15" max="18" width="13.85546875" customWidth="1"/>
     <col min="19" max="19" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>92000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>127000</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>96000</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>340800</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>220500</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>540000</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>2213236</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>66178</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -4153,15 +4153,15 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K23" s="1"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K24" s="1"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J25">
         <f>MEDIAN(J7:J22)</f>
         <v>4315000</v>
@@ -4189,7 +4189,7 @@
         <v>210250</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K26">
         <f>_xlfn.STDEV.P(K7:K22)</f>
         <v>82.614472148005092</v>
@@ -4199,7 +4199,7 @@
         <v>4.3045451492355777</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J28">
         <f>2*J25</f>
         <v>8630000</v>
@@ -4217,7 +4217,7 @@
         <v>11.396334999242772</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="N29">
         <f>STDEV(N9:N19)</f>
         <v>5.1609371034813716</v>
@@ -4230,36 +4230,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA1CF58-C68C-418F-A8C9-FDAEC4B492AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEC2069-89D0-4934-AE1D-23710597A378}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="29.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="25.46484375" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E11">
         <f>AVERAGE(D5:E7)</f>
         <v>136666.66666666666</v>
@@ -4387,7 +4387,7 @@
         <v>53783.94441991784</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F13">
         <f>F11/1000</f>
         <v>84.938885436088668</v>
@@ -4395,29 +4395,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1" xr:uid="{7A97EDAA-9F3D-4B6F-840D-F6393A1608FA}"/>
+    <hyperlink ref="I5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7845D3-E941-4E5A-86D2-6426B9A9C14D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:S36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="6" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.53125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.06640625" customWidth="1"/>
+    <col min="5" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="4:19" x14ac:dyDescent="0.25">
       <c r="P2">
         <v>3</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="4:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="4:19" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
         <v>121</v>
       </c>
@@ -4450,7 +4450,7 @@
       <c r="P3" s="9"/>
       <c r="R3" s="9"/>
     </row>
-    <row r="4" spans="4:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="4:19" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
         <v>104</v>
       </c>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>61</v>
       </c>
@@ -4506,7 +4506,7 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>103</v>
       </c>
@@ -4539,12 +4539,12 @@
         <v>0.86</v>
       </c>
       <c r="P6" s="7">
-        <f t="shared" ref="P5:P22" si="0">O6/$P$2</f>
+        <f t="shared" ref="P6:P22" si="0">O6/$P$2</f>
         <v>0.28666666666666668</v>
       </c>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>46</v>
       </c>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>104</v>
       </c>
@@ -4620,7 +4620,7 @@
       </c>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="4:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>105</v>
       </c>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="4:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>106</v>
       </c>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="4:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>107</v>
       </c>
@@ -4728,7 +4728,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="4:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>108</v>
       </c>
@@ -4760,7 +4760,7 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="4:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>109</v>
       </c>
@@ -4792,7 +4792,7 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="4:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>110</v>
       </c>
@@ -4830,7 +4830,7 @@
       </c>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="4:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="4:19" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
         <v>108</v>
       </c>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="4:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G16">
         <f>AVERAGE(G6:G14)</f>
         <v>10.197565271960558</v>
@@ -4878,7 +4878,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
       <c r="G17">
         <f>_xlfn.STDEV.P(G6:G14)</f>
         <v>6.4317124568730781</v>
@@ -4901,7 +4901,7 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>106</v>
       </c>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
         <v>123</v>
       </c>
@@ -4945,14 +4945,18 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
       <c r="K21">
         <f>AVERAGE(K4:K19)</f>
         <v>4.6500000000000004</v>
       </c>
+      <c r="L21">
+        <f>AVERAGE(L4:L19)</f>
+        <v>47.0625</v>
+      </c>
       <c r="O21" s="10">
         <f>AVERAGE(O4:O19)</f>
         <v>2.0466666666666669</v>
@@ -4963,7 +4967,7 @@
       </c>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
       <c r="O22" s="10">
         <f>_xlfn.STDEV.P(O4:O19)</f>
         <v>1.2740225011095103</v>
@@ -4974,12 +4978,12 @@
       </c>
       <c r="Q22" s="10"/>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>127</v>
       </c>
@@ -5003,7 +5007,7 @@
       </c>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>6</v>
       </c>
@@ -5025,11 +5029,11 @@
         <v>6290</v>
       </c>
       <c r="J27">
-        <f>I27/$K$21</f>
-        <v>1352.6881720430106</v>
-      </c>
-    </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.45">
+        <f>I27/$K$21/365</f>
+        <v>3.7059949918986592</v>
+      </c>
+    </row>
+    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>8</v>
       </c>
@@ -5051,12 +5055,12 @@
         <v>5661.125</v>
       </c>
       <c r="J28">
-        <f t="shared" ref="J28:J31" si="4">I28/$K$21</f>
-        <v>1217.4462365591396</v>
+        <f t="shared" ref="J28:J31" si="4">I28/$K$21/365</f>
+        <v>3.3354691412579167</v>
       </c>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>10</v>
       </c>
@@ -5079,10 +5083,10 @@
       </c>
       <c r="J29">
         <f t="shared" si="4"/>
-        <v>1136.2795698924731</v>
-      </c>
-    </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.45">
+        <v>3.1130947120341728</v>
+      </c>
+    </row>
+    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>12</v>
       </c>
@@ -5105,10 +5109,10 @@
       </c>
       <c r="J30">
         <f t="shared" si="4"/>
-        <v>1082.1863799283153</v>
-      </c>
-    </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.45">
+        <v>2.9648941915844254</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>14</v>
       </c>
@@ -5131,10 +5135,10 @@
       </c>
       <c r="J31">
         <f t="shared" si="4"/>
-        <v>1043.5483870967741</v>
-      </c>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.45">
+        <v>2.8590366769774636</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>45</v>
       </c>
@@ -5143,8 +5147,8 @@
         <v>3367.4362640126692</v>
       </c>
       <c r="J36">
-        <f>I36/K21</f>
-        <v>724.1798417231546</v>
+        <f>I36/K21/365</f>
+        <v>1.9840543608853551</v>
       </c>
     </row>
   </sheetData>
